--- a/doc/log/张志毅小组第七周周报.xlsx
+++ b/doc/log/张志毅小组第七周周报.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI资料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9A240F-147A-47DC-BD88-63ABC611B7E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C2AA64-869D-4B16-9456-521738776449}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>小组</t>
   </si>
@@ -123,6 +123,23 @@
   <si>
     <t>熟悉相关矩
 阵，看第五章</t>
+  </si>
+  <si>
+    <t>支友盟</t>
+  </si>
+  <si>
+    <t>学习机器学习</t>
+  </si>
+  <si>
+    <t>k-近邻算法和决策树以及deep learning的学习</t>
+  </si>
+  <si>
+    <t>有几个地方还是依然比较混淆，难懂。
+解决方案：网上搜集资料</t>
+  </si>
+  <si>
+    <t>学习朴素贝叶斯和Logistic回归，
+并尽快搞懂本周问题</t>
   </si>
 </sst>
 </file>
@@ -179,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -205,15 +222,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -492,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -535,7 +557,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="104.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -553,15 +575,15 @@
       <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
@@ -577,33 +599,48 @@
       <c r="F3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -620,9 +657,9 @@
     <row r="18" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
